--- a/report.xlsx
+++ b/report.xlsx
@@ -445,9 +445,9 @@
   <cols>
     <col width="12" customWidth="1" min="1" max="1"/>
     <col width="24.5" customWidth="1" min="2" max="2"/>
-    <col width="38.5" customWidth="1" min="3" max="3"/>
+    <col width="35.5" customWidth="1" min="3" max="3"/>
     <col width="27.5" customWidth="1" min="4" max="4"/>
-    <col width="41.5" customWidth="1" min="5" max="5"/>
+    <col width="38.5" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -463,7 +463,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Средняя зарплата - программист</t>
+          <t>Средняя зарплата - Аналитик</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -473,7 +473,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Количество вакансий - программист</t>
+          <t>Количество вакансий - Аналитик</t>
         </is>
       </c>
     </row>
@@ -485,13 +485,13 @@
         <v>38916</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>40936</v>
+        <v>40641</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>2196</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>118</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>43646</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>46417</v>
+        <v>48428</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>17549</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>1212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4">
@@ -519,13 +519,13 @@
         <v>42492</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>45030</v>
+        <v>48109</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>17709</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>1326</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5">
@@ -536,13 +536,13 @@
         <v>43846</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>47242</v>
+        <v>49577</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>29093</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>2260</v>
+        <v>328</v>
       </c>
     </row>
     <row r="6">
@@ -553,13 +553,13 @@
         <v>47451</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>49111</v>
+        <v>52794</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>36700</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>2984</v>
+        <v>418</v>
       </c>
     </row>
     <row r="7">
@@ -570,13 +570,13 @@
         <v>48243</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>52382</v>
+        <v>58341</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>3396</v>
+        <v>374</v>
       </c>
     </row>
     <row r="8">
@@ -587,13 +587,13 @@
         <v>51510</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>52385</v>
+        <v>57004</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>59954</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>4132</v>
+        <v>420</v>
       </c>
     </row>
     <row r="9">
@@ -604,13 +604,13 @@
         <v>50658</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>58169</v>
+        <v>58768</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>66837</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>4606</v>
+        <v>504</v>
       </c>
     </row>
     <row r="10">
@@ -621,13 +621,13 @@
         <v>52696</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>57032</v>
+        <v>53326</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>70039</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>4515</v>
+        <v>749</v>
       </c>
     </row>
     <row r="11">
@@ -638,13 +638,13 @@
         <v>62675</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>61834</v>
+        <v>54236</v>
       </c>
       <c r="D11" s="2" t="n">
         <v>75145</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>6101</v>
+        <v>911</v>
       </c>
     </row>
     <row r="12">
@@ -655,13 +655,13 @@
         <v>60935</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>67484</v>
+        <v>56558</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>82823</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>6381</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="13">
@@ -672,13 +672,13 @@
         <v>58335</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>71551</v>
+        <v>61080</v>
       </c>
       <c r="D13" s="2" t="n">
         <v>131701</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>7356</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="14">
@@ -689,13 +689,13 @@
         <v>69467</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>74633</v>
+        <v>71288</v>
       </c>
       <c r="D14" s="2" t="n">
         <v>115086</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>6163</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="15">
@@ -706,13 +706,13 @@
         <v>73431</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>78800</v>
+        <v>80145</v>
       </c>
       <c r="D15" s="2" t="n">
         <v>102243</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>4894</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="16">
@@ -723,13 +723,13 @@
         <v>82690</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>91625</v>
+        <v>87473</v>
       </c>
       <c r="D16" s="2" t="n">
         <v>57623</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>2385</v>
+        <v>805</v>
       </c>
     </row>
     <row r="17">
@@ -740,13 +740,13 @@
         <v>91795</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>98050</v>
+        <v>91340</v>
       </c>
       <c r="D17" s="2" t="n">
         <v>18294</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>653</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>

--- a/report.xlsx
+++ b/report.xlsx
@@ -445,9 +445,9 @@
   <cols>
     <col width="12" customWidth="1" min="1" max="1"/>
     <col width="24.5" customWidth="1" min="2" max="2"/>
-    <col width="35.5" customWidth="1" min="3" max="3"/>
+    <col width="27.5" customWidth="1" min="3" max="3"/>
     <col width="27.5" customWidth="1" min="4" max="4"/>
-    <col width="38.5" customWidth="1" min="5" max="5"/>
+    <col width="30.5" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -463,7 +463,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Средняя зарплата - Аналитик</t>
+          <t xml:space="preserve">Средняя зарплата - </t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -473,7 +473,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Количество вакансий - Аналитик</t>
+          <t xml:space="preserve">Количество вакансий - </t>
         </is>
       </c>
     </row>
@@ -485,13 +485,13 @@
         <v>38916</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>40641</v>
+        <v>38916</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>2196</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>34</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>43646</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>48428</v>
+        <v>43646</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>17549</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>196</v>
+        <v>17549</v>
       </c>
     </row>
     <row r="4">
@@ -519,13 +519,13 @@
         <v>42492</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>48109</v>
+        <v>42492</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>17709</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>171</v>
+        <v>17709</v>
       </c>
     </row>
     <row r="5">
@@ -536,13 +536,13 @@
         <v>43846</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>49577</v>
+        <v>43846</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>29093</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>328</v>
+        <v>29093</v>
       </c>
     </row>
     <row r="6">
@@ -553,13 +553,13 @@
         <v>47451</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>52794</v>
+        <v>47451</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>36700</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>418</v>
+        <v>36700</v>
       </c>
     </row>
     <row r="7">
@@ -570,13 +570,13 @@
         <v>48243</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>58341</v>
+        <v>48243</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>374</v>
+        <v>44153</v>
       </c>
     </row>
     <row r="8">
@@ -587,13 +587,13 @@
         <v>51510</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>57004</v>
+        <v>51510</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>59954</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>420</v>
+        <v>59954</v>
       </c>
     </row>
     <row r="9">
@@ -604,13 +604,13 @@
         <v>50658</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>58768</v>
+        <v>50658</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>66837</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>504</v>
+        <v>66837</v>
       </c>
     </row>
     <row r="10">
@@ -621,13 +621,13 @@
         <v>52696</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>53326</v>
+        <v>52696</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>70039</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>749</v>
+        <v>70039</v>
       </c>
     </row>
     <row r="11">
@@ -638,13 +638,13 @@
         <v>62675</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>54236</v>
+        <v>62675</v>
       </c>
       <c r="D11" s="2" t="n">
         <v>75145</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>911</v>
+        <v>75145</v>
       </c>
     </row>
     <row r="12">
@@ -655,13 +655,13 @@
         <v>60935</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>56558</v>
+        <v>60935</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>82823</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>1201</v>
+        <v>82823</v>
       </c>
     </row>
     <row r="13">
@@ -672,13 +672,13 @@
         <v>58335</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>61080</v>
+        <v>58335</v>
       </c>
       <c r="D13" s="2" t="n">
         <v>131701</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>1578</v>
+        <v>131701</v>
       </c>
     </row>
     <row r="14">
@@ -689,13 +689,13 @@
         <v>69467</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>71288</v>
+        <v>69467</v>
       </c>
       <c r="D14" s="2" t="n">
         <v>115086</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>1482</v>
+        <v>115086</v>
       </c>
     </row>
     <row r="15">
@@ -706,13 +706,13 @@
         <v>73431</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>80145</v>
+        <v>73431</v>
       </c>
       <c r="D15" s="2" t="n">
         <v>102243</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>1349</v>
+        <v>102243</v>
       </c>
     </row>
     <row r="16">
@@ -723,13 +723,13 @@
         <v>82690</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>87473</v>
+        <v>82690</v>
       </c>
       <c r="D16" s="2" t="n">
         <v>57623</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>805</v>
+        <v>57623</v>
       </c>
     </row>
     <row r="17">
@@ -740,13 +740,13 @@
         <v>91795</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>91340</v>
+        <v>91795</v>
       </c>
       <c r="D17" s="2" t="n">
         <v>18294</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>305</v>
+        <v>18294</v>
       </c>
     </row>
   </sheetData>

--- a/report.xlsx
+++ b/report.xlsx
@@ -445,9 +445,9 @@
   <cols>
     <col width="12" customWidth="1" min="1" max="1"/>
     <col width="24.5" customWidth="1" min="2" max="2"/>
-    <col width="27.5" customWidth="1" min="3" max="3"/>
+    <col width="38.5" customWidth="1" min="3" max="3"/>
     <col width="27.5" customWidth="1" min="4" max="4"/>
-    <col width="30.5" customWidth="1" min="5" max="5"/>
+    <col width="41.5" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -463,7 +463,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Средняя зарплата - </t>
+          <t>Средняя зарплата - Программист</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -473,280 +473,312 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Количество вакансий - </t>
+          <t>Количество вакансий - Программист</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>2007</v>
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
       </c>
       <c r="B2" s="2" t="n">
         <v>38916</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>38916</v>
+        <v>43770</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>2196</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>2196</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>2008</v>
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
       </c>
       <c r="B3" s="2" t="n">
         <v>43646</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>43646</v>
+        <v>50412</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>17549</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>17549</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2009</v>
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
       </c>
       <c r="B4" s="2" t="n">
         <v>42492</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>42492</v>
+        <v>46699</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>17709</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>17709</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>2010</v>
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="B5" s="2" t="n">
         <v>43846</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>43846</v>
+        <v>50570</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>29093</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>29093</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>2011</v>
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
       </c>
       <c r="B6" s="2" t="n">
         <v>47451</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>47451</v>
+        <v>55770</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>36700</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>36700</v>
+        <v>4422</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>2012</v>
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
       </c>
       <c r="B7" s="2" t="n">
         <v>48243</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>48243</v>
+        <v>57960</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>44153</v>
+        <v>4966</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>2013</v>
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
       </c>
       <c r="B8" s="2" t="n">
         <v>51510</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>51510</v>
+        <v>58804</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>59954</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>59954</v>
+        <v>5990</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>2014</v>
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
       </c>
       <c r="B9" s="2" t="n">
         <v>50658</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>50658</v>
+        <v>62384</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>66837</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>66837</v>
+        <v>5492</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>2015</v>
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
       </c>
       <c r="B10" s="2" t="n">
         <v>52696</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>52696</v>
+        <v>62322</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>70039</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>70039</v>
+        <v>5375</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>2016</v>
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
       </c>
       <c r="B11" s="2" t="n">
         <v>62675</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>62675</v>
+        <v>66817</v>
       </c>
       <c r="D11" s="2" t="n">
         <v>75145</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>75145</v>
+        <v>7219</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>2017</v>
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="B12" s="2" t="n">
         <v>60935</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>60935</v>
+        <v>72460</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>82823</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>82823</v>
+        <v>8105</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>2018</v>
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
       </c>
       <c r="B13" s="2" t="n">
         <v>58335</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>58335</v>
+        <v>76879</v>
       </c>
       <c r="D13" s="2" t="n">
         <v>131701</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>131701</v>
+        <v>10062</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>2019</v>
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B14" s="2" t="n">
         <v>69467</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>69467</v>
+        <v>85300</v>
       </c>
       <c r="D14" s="2" t="n">
         <v>115086</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>115086</v>
+        <v>9016</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>2020</v>
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="B15" s="2" t="n">
         <v>73431</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>73431</v>
+        <v>89791</v>
       </c>
       <c r="D15" s="2" t="n">
         <v>102243</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>102243</v>
+        <v>7113</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>2021</v>
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="B16" s="2" t="n">
         <v>82690</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>82690</v>
+        <v>100987</v>
       </c>
       <c r="D16" s="2" t="n">
         <v>57623</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>57623</v>
+        <v>3466</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>2022</v>
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
       </c>
       <c r="B17" s="2" t="n">
         <v>91795</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>91795</v>
+        <v>116651</v>
       </c>
       <c r="D17" s="2" t="n">
         <v>18294</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>18294</v>
+        <v>1115</v>
       </c>
     </row>
   </sheetData>
